--- a/uploads/test_excel_cases.xlsx
+++ b/uploads/test_excel_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A75A329-769F-4A4E-B044-610F3625136F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A488A091-96B9-4E99-A702-322D51303EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
-  <si>
-    <t>Operation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>fileName</t>
   </si>
@@ -82,9 +79,6 @@
     <t>insert</t>
   </si>
   <si>
-    <t>insert-test-001.xlsx</t>
-  </si>
-  <si>
     <t>INS-001</t>
   </si>
   <si>
@@ -94,18 +88,12 @@
     <t>Form Alpha</t>
   </si>
   <si>
-    <t>01/01/2020</t>
-  </si>
-  <si>
     <t>12/31/9999</t>
   </si>
   <si>
     <t>INS,OFC,XZZ</t>
   </si>
   <si>
-    <t>20500200</t>
-  </si>
-  <si>
     <t>03 2024</t>
   </si>
   <si>
@@ -115,90 +103,119 @@
     <t>update</t>
   </si>
   <si>
-    <t>update-test-001.xlsx</t>
-  </si>
-  <si>
     <t>UPD-001</t>
   </si>
   <si>
     <t>CM 01 02</t>
   </si>
   <si>
-    <t>UpdatedName</t>
-  </si>
-  <si>
-    <t>insert-test-002.xlsx</t>
-  </si>
-  <si>
     <t>INS-002</t>
   </si>
   <si>
     <t>CM 01 03</t>
   </si>
   <si>
-    <t>Form Beta</t>
-  </si>
-  <si>
-    <t>02/15/2022</t>
-  </si>
-  <si>
-    <t>12/31/2024</t>
-  </si>
-  <si>
-    <t>LINES</t>
-  </si>
-  <si>
-    <t>update-test-002.xlsx</t>
-  </si>
-  <si>
     <t>UPD-002</t>
   </si>
   <si>
     <t>CM 01 04</t>
   </si>
   <si>
-    <t>insert-test-003.xlsx</t>
-  </si>
-  <si>
     <t>INS-003</t>
   </si>
   <si>
     <t>CM 01 05</t>
   </si>
   <si>
-    <t>03/01/2021</t>
-  </si>
-  <si>
     <t>PDF</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>UPD-004</t>
-  </si>
-  <si>
     <t>CM 01 06</t>
   </si>
   <si>
-    <t>update-test-003.xlsx</t>
-  </si>
-  <si>
     <t>UPD-003</t>
   </si>
   <si>
     <t>CM 01 07</t>
   </si>
   <si>
-    <t>abc</t>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>valid-insert.xlsx</t>
+  </si>
+  <si>
+    <t>missing-formname.xlsx</t>
+  </si>
+  <si>
+    <t>empty-fields.xlsx</t>
+  </si>
+  <si>
+    <t>Test Form</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>valid-update.xlsx</t>
+  </si>
+  <si>
+    <t>Updated Form</t>
+  </si>
+  <si>
+    <t>NEWLOB</t>
+  </si>
+  <si>
+    <t>bad-srtkey-update.xlsx</t>
+  </si>
+  <si>
+    <t>12A4567</t>
+  </si>
+  <si>
+    <t>no-attrs-update.xlsx</t>
+  </si>
+  <si>
+    <t>bad-srtkey-insert.xlsx</t>
+  </si>
+  <si>
+    <t>INS-004</t>
+  </si>
+  <si>
+    <t>Wrong Key</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>string-bools.xlsx</t>
+  </si>
+  <si>
+    <t>INS-005</t>
+  </si>
+  <si>
+    <t>CM 01 08</t>
+  </si>
+  <si>
+    <t>Bool String</t>
+  </si>
+  <si>
+    <t>TXT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -226,8 +243,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,274 +556,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43831</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>20500200</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3">
+        <v>44198</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44566</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2">
+        <v>11223344</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="2">
+        <v>123</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="2">
+        <v>99887766</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="b">
+      <c r="N9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
+      <c r="P9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>22255000</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="b">
+      <c r="R9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/test_excel_cases.xlsx
+++ b/uploads/test_excel_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A488A091-96B9-4E99-A702-322D51303EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5F084C-136A-4690-B0CA-8EBDCA26D7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="480" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>fileName</t>
   </si>
@@ -130,9 +130,6 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>CM 01 06</t>
-  </si>
-  <si>
     <t>UPD-003</t>
   </si>
   <si>
@@ -142,42 +139,21 @@
     <t>operation</t>
   </si>
   <si>
-    <t>valid-insert.xlsx</t>
-  </si>
-  <si>
-    <t>missing-formname.xlsx</t>
-  </si>
-  <si>
-    <t>empty-fields.xlsx</t>
-  </si>
-  <si>
     <t>Test Form</t>
   </si>
   <si>
     <t>ABC</t>
   </si>
   <si>
-    <t>valid-update.xlsx</t>
-  </si>
-  <si>
     <t>Updated Form</t>
   </si>
   <si>
     <t>NEWLOB</t>
   </si>
   <si>
-    <t>bad-srtkey-update.xlsx</t>
-  </si>
-  <si>
     <t>12A4567</t>
   </si>
   <si>
-    <t>no-attrs-update.xlsx</t>
-  </si>
-  <si>
-    <t>bad-srtkey-insert.xlsx</t>
-  </si>
-  <si>
     <t>INS-004</t>
   </si>
   <si>
@@ -200,6 +176,36 @@
   </si>
   <si>
     <t>TXT</t>
+  </si>
+  <si>
+    <t>xyz forms</t>
+  </si>
+  <si>
+    <t>CM 01 29</t>
+  </si>
+  <si>
+    <t>missing-formname1.xlsx</t>
+  </si>
+  <si>
+    <t>empty-fields1.xlsx</t>
+  </si>
+  <si>
+    <t>bad-srtkey-update1.xlsx</t>
+  </si>
+  <si>
+    <t>bad-srtkey-insert1.xlsx</t>
+  </si>
+  <si>
+    <t>valid-insert21.xlsx</t>
+  </si>
+  <si>
+    <t>valid-update12.xlsx</t>
+  </si>
+  <si>
+    <t>no-attrs-update1.xlsx</t>
+  </si>
+  <si>
+    <t>valid-update17.xlsx</t>
   </si>
 </sst>
 </file>
@@ -556,17 +562,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -628,7 +634,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -687,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -719,12 +725,12 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
@@ -733,7 +739,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3">
         <v>44566</v>
@@ -742,7 +748,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2">
         <v>11223344</v>
@@ -763,7 +769,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -772,7 +778,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -780,7 +786,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="b">
         <v>1</v>
@@ -798,7 +804,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -811,7 +817,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -829,15 +835,17 @@
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -858,16 +866,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>22</v>
@@ -876,7 +884,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2">
         <v>123</v>
@@ -897,16 +905,16 @@
         <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>22</v>
@@ -915,7 +923,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2">
         <v>99887766</v>
@@ -946,6 +954,41 @@
       <c r="S9" s="2" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="10" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/test_excel_cases.xlsx
+++ b/uploads/test_excel_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5F084C-136A-4690-B0CA-8EBDCA26D7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6153AC35-B2EA-4961-8B56-D0CF5E8B3ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6600" yWindow="480" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,28 +184,28 @@
     <t>CM 01 29</t>
   </si>
   <si>
-    <t>missing-formname1.xlsx</t>
-  </si>
-  <si>
-    <t>empty-fields1.xlsx</t>
-  </si>
-  <si>
     <t>bad-srtkey-update1.xlsx</t>
   </si>
   <si>
-    <t>bad-srtkey-insert1.xlsx</t>
-  </si>
-  <si>
-    <t>valid-insert21.xlsx</t>
-  </si>
-  <si>
-    <t>valid-update12.xlsx</t>
-  </si>
-  <si>
-    <t>no-attrs-update1.xlsx</t>
-  </si>
-  <si>
-    <t>valid-update17.xlsx</t>
+    <t>valid-update16.xlsx</t>
+  </si>
+  <si>
+    <t>valid-update92.xlsx</t>
+  </si>
+  <si>
+    <t>bad-srtkey-insert21.xlsx</t>
+  </si>
+  <si>
+    <t>no-attrs-update31.xlsx</t>
+  </si>
+  <si>
+    <t>empty-fields721.xlsx</t>
+  </si>
+  <si>
+    <t>valid-insert2212.xlsx</t>
+  </si>
+  <si>
+    <t>missing-formname184.xlsx</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,7 +634,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -730,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
@@ -769,7 +769,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -804,7 +804,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -835,7 +835,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -960,7 +960,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>

--- a/uploads/test_excel_cases.xlsx
+++ b/uploads/test_excel_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6153AC35-B2EA-4961-8B56-D0CF5E8B3ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E42633B-12D4-4999-8F3E-945D1ACF6D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="480" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3444" yWindow="600" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,25 +187,25 @@
     <t>bad-srtkey-update1.xlsx</t>
   </si>
   <si>
-    <t>valid-update16.xlsx</t>
-  </si>
-  <si>
-    <t>valid-update92.xlsx</t>
-  </si>
-  <si>
     <t>bad-srtkey-insert21.xlsx</t>
   </si>
   <si>
     <t>no-attrs-update31.xlsx</t>
   </si>
   <si>
-    <t>empty-fields721.xlsx</t>
-  </si>
-  <si>
-    <t>valid-insert2212.xlsx</t>
-  </si>
-  <si>
-    <t>missing-formname184.xlsx</t>
+    <t>valid-insert512.xlsx</t>
+  </si>
+  <si>
+    <t>missing-formname94.xlsx</t>
+  </si>
+  <si>
+    <t>empty-fields727.xlsx</t>
+  </si>
+  <si>
+    <t>valid-update929.xlsx</t>
+  </si>
+  <si>
+    <t>valid-update176.xlsx</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,7 +634,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -769,7 +769,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -835,7 +835,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -866,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
@@ -960,7 +960,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
